--- a/Final List of Papers.xlsx
+++ b/Final List of Papers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10720"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carolinezhao/Desktop/Semantic Signals Group/sok/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59413993-9D1C-3D44-B319-214A68FF06DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85BC9AAC-06D9-D34D-8F7F-41A634E810B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34200" windowHeight="21380" xr2:uid="{06F2C6DF-8887-8147-BD7A-FF18249307CF}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="19940" xr2:uid="{06F2C6DF-8887-8147-BD7A-FF18249307CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Final Lsit of Papers" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,8 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'author counts'!$A$1:$A$454</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">'author counts'!$J$1:$J$28</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'author counts'!$K$1:$K$28</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -64,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="502">
   <si>
     <t>title</t>
   </si>
@@ -1561,6 +1559,15 @@
   </si>
   <si>
     <t>https://www.ndss-symposium.org/wp-content/uploads/2023/02/ndss2023_f217_paper.pdf</t>
+  </si>
+  <si>
+    <t>Privacy-Aware UAV Flights through Self-Configuring Motion Planning.</t>
+  </si>
+  <si>
+    <t>Yixing Luo; Yijun Yu; Zhi Jin; Yao Li 0011; Zuohua Ding; Yuan Zhou 0005; Yang Liu 0003</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1109/ICRA40945.2020.9197564</t>
   </si>
 </sst>
 </file>
@@ -1805,7 +1812,7 @@
                   <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>6</c:v>
@@ -2190,7 +2197,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1</c:v>
@@ -4899,10 +4906,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC263DCE-2C44-5341-B9C7-1F08FA2A4498}">
-  <dimension ref="A1:Q65"/>
+  <dimension ref="A1:Q66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="180" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4917,7 +4924,7 @@
       </c>
       <c r="B1" s="5">
         <f>SUBTOTAL(103,A:A)-2</f>
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4972,22 +4979,22 @@
         <v>8</v>
       </c>
       <c r="K3" cm="1">
-        <f t="array" ref="K3:K10">COUNTIF(B3:B65,J3:J10)</f>
+        <f t="array" ref="K3:K10">COUNTIF(B3:B66,J3:J10)</f>
         <v>1</v>
       </c>
       <c r="M3" s="6" t="s">
         <v>11</v>
       </c>
       <c r="N3" cm="1">
-        <f t="array" ref="N3:N20">COUNTIF(F3:F65,"*" &amp; M3:M20&amp; "*")</f>
+        <f t="array" ref="N3:N20">COUNTIF(F3:F66,"*" &amp; M3:M20&amp; "*")</f>
         <v>5</v>
       </c>
       <c r="P3">
         <v>2020</v>
       </c>
       <c r="Q3" cm="1">
-        <f t="array" ref="Q3:Q8">COUNTIF(E3:E65,P3:P8)</f>
-        <v>10</v>
+        <f t="array" ref="Q3:Q8">COUNTIF(E3:E66,P3:P8)</f>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
@@ -5051,7 +5058,7 @@
         <v>25</v>
       </c>
       <c r="K5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M5" t="s">
         <v>28</v>
@@ -5216,7 +5223,7 @@
       </c>
       <c r="Q9">
         <f>SUM(_xlfn.ANCHORARRAY(Q3))</f>
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
@@ -5275,7 +5282,7 @@
       </c>
       <c r="K11">
         <f>SUM(_xlfn.ANCHORARRAY(K3))</f>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M11" t="s">
         <v>209</v>
@@ -5337,7 +5344,7 @@
         <v>212</v>
       </c>
       <c r="N13">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
@@ -5546,7 +5553,7 @@
       </c>
       <c r="N21">
         <f>SUM(N3:N20)</f>
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
@@ -6427,6 +6434,26 @@
       </c>
       <c r="F65" t="s">
         <v>215</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>499</v>
+      </c>
+      <c r="B66" t="s">
+        <v>25</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="D66" t="s">
+        <v>500</v>
+      </c>
+      <c r="E66">
+        <v>2020</v>
+      </c>
+      <c r="F66" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -6477,9 +6504,11 @@
     <hyperlink ref="C37" r:id="rId44" xr:uid="{B6BFFBBC-4579-1542-A019-B7D3D523CAF1}"/>
     <hyperlink ref="C35" r:id="rId45" xr:uid="{D3227B4A-5BB8-B24F-B91F-7B095EED5A75}"/>
     <hyperlink ref="C31" r:id="rId46" xr:uid="{3C4A14E2-AEE8-F245-8A7B-397943BFED1E}"/>
+    <hyperlink ref="C66" r:id="rId47" xr:uid="{F0E2694C-5D2B-A049-981D-2088DD59E9D1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId47"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId48"/>
 </worksheet>
 </file>
 
@@ -6487,8 +6516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F34A96AE-743A-6E4A-B1C7-95FE4AF62E77}">
   <dimension ref="A1:K324"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Final List of Papers.xlsx
+++ b/Final List of Papers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carolinezhao/Desktop/Semantic Signals Group/sok/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85BC9AAC-06D9-D34D-8F7F-41A634E810B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC56C8F0-A320-694C-992F-40A73E5883B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="19940" xr2:uid="{06F2C6DF-8887-8147-BD7A-FF18249307CF}"/>
+    <workbookView xWindow="9360" yWindow="3000" windowWidth="34200" windowHeight="19940" xr2:uid="{06F2C6DF-8887-8147-BD7A-FF18249307CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Final Lsit of Papers" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -4908,8 +4908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC263DCE-2C44-5341-B9C7-1F08FA2A4498}">
   <dimension ref="A1:Q66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:L17"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
